--- a/Modulo5/src/out/info_estados/Nevada.xlsx
+++ b/Modulo5/src/out/info_estados/Nevada.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="45">
   <si>
     <t>state</t>
   </si>
@@ -40,10 +40,10 @@
     <t>fraction_votes</t>
   </si>
   <si>
-    <t>nueva_columna</t>
+    <t>nuevaColumna</t>
   </si>
   <si>
-    <t>columna_aumentada</t>
+    <t>slogan</t>
   </si>
   <si>
     <t>letra_inicial</t>
@@ -140,6 +140,12 @@
   </si>
   <si>
     <t>Ted Cruz</t>
+  </si>
+  <si>
+    <t>Un buen partido</t>
+  </si>
+  <si>
+    <t>No pobres en pais rico</t>
   </si>
   <si>
     <t>N</t>
@@ -578,14 +584,14 @@
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2">
-        <v>3</v>
+      <c r="J2" t="s">
+        <v>42</v>
       </c>
       <c r="K2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="M2">
         <v>32510</v>
@@ -622,14 +628,14 @@
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3">
-        <v>3</v>
+      <c r="J3" t="s">
+        <v>42</v>
       </c>
       <c r="K3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="M3">
         <v>32510</v>
@@ -666,14 +672,14 @@
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4">
-        <v>3</v>
+      <c r="J4" t="s">
+        <v>43</v>
       </c>
       <c r="K4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>209</v>
       </c>
       <c r="M4">
         <v>32510</v>
@@ -710,14 +716,14 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5">
-        <v>3</v>
+      <c r="J5" t="s">
+        <v>43</v>
       </c>
       <c r="K5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>1067</v>
       </c>
       <c r="M5">
         <v>32510</v>
@@ -754,14 +760,14 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6">
-        <v>3</v>
+      <c r="J6" t="s">
+        <v>43</v>
       </c>
       <c r="K6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="M6">
         <v>32510</v>
@@ -798,14 +804,14 @@
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7">
-        <v>3</v>
+      <c r="J7" t="s">
+        <v>43</v>
       </c>
       <c r="K7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>601</v>
       </c>
       <c r="M7">
         <v>32510</v>
@@ -842,14 +848,14 @@
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8">
-        <v>3</v>
+      <c r="J8" t="s">
+        <v>43</v>
       </c>
       <c r="K8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>463</v>
       </c>
       <c r="M8">
         <v>32510</v>
@@ -886,14 +892,14 @@
       <c r="I9">
         <v>1</v>
       </c>
-      <c r="J9">
-        <v>3</v>
+      <c r="J9" t="s">
+        <v>42</v>
       </c>
       <c r="K9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="M9">
         <v>32001</v>
@@ -930,14 +936,14 @@
       <c r="I10">
         <v>1</v>
       </c>
-      <c r="J10">
-        <v>3</v>
+      <c r="J10" t="s">
+        <v>42</v>
       </c>
       <c r="K10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="M10">
         <v>32001</v>
@@ -974,14 +980,14 @@
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11">
-        <v>3</v>
+      <c r="J11" t="s">
+        <v>43</v>
       </c>
       <c r="K11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="M11">
         <v>32001</v>
@@ -1018,14 +1024,14 @@
       <c r="I12">
         <v>1</v>
       </c>
-      <c r="J12">
-        <v>3</v>
+      <c r="J12" t="s">
+        <v>43</v>
       </c>
       <c r="K12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>539</v>
       </c>
       <c r="M12">
         <v>32001</v>
@@ -1062,14 +1068,14 @@
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13">
-        <v>3</v>
+      <c r="J13" t="s">
+        <v>43</v>
       </c>
       <c r="K13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="M13">
         <v>32001</v>
@@ -1106,14 +1112,14 @@
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14">
-        <v>3</v>
+      <c r="J14" t="s">
+        <v>43</v>
       </c>
       <c r="K14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>343</v>
       </c>
       <c r="M14">
         <v>32001</v>
@@ -1150,14 +1156,14 @@
       <c r="I15">
         <v>1</v>
       </c>
-      <c r="J15">
-        <v>3</v>
+      <c r="J15" t="s">
+        <v>43</v>
       </c>
       <c r="K15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>313</v>
       </c>
       <c r="M15">
         <v>32001</v>
@@ -1194,14 +1200,14 @@
       <c r="I16">
         <v>1</v>
       </c>
-      <c r="J16">
-        <v>3</v>
+      <c r="J16" t="s">
+        <v>42</v>
       </c>
       <c r="K16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>3921</v>
       </c>
       <c r="M16">
         <v>32003</v>
@@ -1238,14 +1244,14 @@
       <c r="I17">
         <v>1</v>
       </c>
-      <c r="J17">
-        <v>3</v>
+      <c r="J17" t="s">
+        <v>42</v>
       </c>
       <c r="K17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>4768</v>
       </c>
       <c r="M17">
         <v>32003</v>
@@ -1282,14 +1288,14 @@
       <c r="I18">
         <v>1</v>
       </c>
-      <c r="J18">
-        <v>3</v>
+      <c r="J18" t="s">
+        <v>43</v>
       </c>
       <c r="K18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>1489</v>
       </c>
       <c r="M18">
         <v>32003</v>
@@ -1326,14 +1332,14 @@
       <c r="I19">
         <v>1</v>
       </c>
-      <c r="J19">
-        <v>3</v>
+      <c r="J19" t="s">
+        <v>43</v>
       </c>
       <c r="K19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>20133</v>
       </c>
       <c r="M19">
         <v>32003</v>
@@ -1370,14 +1376,14 @@
       <c r="I20">
         <v>1</v>
       </c>
-      <c r="J20">
-        <v>3</v>
+      <c r="J20" t="s">
+        <v>43</v>
       </c>
       <c r="K20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L20">
-        <v>4</v>
+        <v>1400</v>
       </c>
       <c r="M20">
         <v>32003</v>
@@ -1414,14 +1420,14 @@
       <c r="I21">
         <v>1</v>
       </c>
-      <c r="J21">
-        <v>3</v>
+      <c r="J21" t="s">
+        <v>43</v>
       </c>
       <c r="K21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>10115</v>
       </c>
       <c r="M21">
         <v>32003</v>
@@ -1458,14 +1464,14 @@
       <c r="I22">
         <v>1</v>
       </c>
-      <c r="J22">
-        <v>3</v>
+      <c r="J22" t="s">
+        <v>43</v>
       </c>
       <c r="K22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>7858</v>
       </c>
       <c r="M22">
         <v>32003</v>
@@ -1502,14 +1508,14 @@
       <c r="I23">
         <v>1</v>
       </c>
-      <c r="J23">
-        <v>3</v>
+      <c r="J23" t="s">
+        <v>42</v>
       </c>
       <c r="K23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="M23">
         <v>32005</v>
@@ -1546,14 +1552,14 @@
       <c r="I24">
         <v>1</v>
       </c>
-      <c r="J24">
-        <v>3</v>
+      <c r="J24" t="s">
+        <v>42</v>
       </c>
       <c r="K24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L24">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="M24">
         <v>32005</v>
@@ -1590,14 +1596,14 @@
       <c r="I25">
         <v>1</v>
       </c>
-      <c r="J25">
-        <v>3</v>
+      <c r="J25" t="s">
+        <v>43</v>
       </c>
       <c r="K25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>282</v>
       </c>
       <c r="M25">
         <v>32005</v>
@@ -1634,14 +1640,14 @@
       <c r="I26">
         <v>1</v>
       </c>
-      <c r="J26">
-        <v>3</v>
+      <c r="J26" t="s">
+        <v>43</v>
       </c>
       <c r="K26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>1684</v>
       </c>
       <c r="M26">
         <v>32005</v>
@@ -1678,14 +1684,14 @@
       <c r="I27">
         <v>1</v>
       </c>
-      <c r="J27">
-        <v>3</v>
+      <c r="J27" t="s">
+        <v>43</v>
       </c>
       <c r="K27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="M27">
         <v>32005</v>
@@ -1722,14 +1728,14 @@
       <c r="I28">
         <v>1</v>
       </c>
-      <c r="J28">
-        <v>3</v>
+      <c r="J28" t="s">
+        <v>43</v>
       </c>
       <c r="K28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>1252</v>
       </c>
       <c r="M28">
         <v>32005</v>
@@ -1766,14 +1772,14 @@
       <c r="I29">
         <v>1</v>
       </c>
-      <c r="J29">
-        <v>3</v>
+      <c r="J29" t="s">
+        <v>43</v>
       </c>
       <c r="K29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L29">
-        <v>4</v>
+        <v>1196</v>
       </c>
       <c r="M29">
         <v>32005</v>
@@ -1810,14 +1816,14 @@
       <c r="I30">
         <v>1</v>
       </c>
-      <c r="J30">
-        <v>3</v>
+      <c r="J30" t="s">
+        <v>42</v>
       </c>
       <c r="K30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="M30">
         <v>32007</v>
@@ -1854,14 +1860,14 @@
       <c r="I31">
         <v>1</v>
       </c>
-      <c r="J31">
-        <v>3</v>
+      <c r="J31" t="s">
+        <v>42</v>
       </c>
       <c r="K31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L31">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="M31">
         <v>32007</v>
@@ -1898,14 +1904,14 @@
       <c r="I32">
         <v>1</v>
       </c>
-      <c r="J32">
-        <v>3</v>
+      <c r="J32" t="s">
+        <v>43</v>
       </c>
       <c r="K32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L32">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="M32">
         <v>32007</v>
@@ -1942,14 +1948,14 @@
       <c r="I33">
         <v>1</v>
       </c>
-      <c r="J33">
-        <v>3</v>
+      <c r="J33" t="s">
+        <v>43</v>
       </c>
       <c r="K33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L33">
-        <v>4</v>
+        <v>601</v>
       </c>
       <c r="M33">
         <v>32007</v>
@@ -1986,14 +1992,14 @@
       <c r="I34">
         <v>1</v>
       </c>
-      <c r="J34">
-        <v>3</v>
+      <c r="J34" t="s">
+        <v>43</v>
       </c>
       <c r="K34" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L34">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M34">
         <v>32007</v>
@@ -2030,14 +2036,14 @@
       <c r="I35">
         <v>1</v>
       </c>
-      <c r="J35">
-        <v>3</v>
+      <c r="J35" t="s">
+        <v>43</v>
       </c>
       <c r="K35" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L35">
-        <v>4</v>
+        <v>504</v>
       </c>
       <c r="M35">
         <v>32007</v>
@@ -2074,14 +2080,14 @@
       <c r="I36">
         <v>1</v>
       </c>
-      <c r="J36">
-        <v>3</v>
+      <c r="J36" t="s">
+        <v>43</v>
       </c>
       <c r="K36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L36">
-        <v>4</v>
+        <v>1040</v>
       </c>
       <c r="M36">
         <v>32007</v>
@@ -2118,14 +2124,14 @@
       <c r="I37">
         <v>1</v>
       </c>
-      <c r="J37">
-        <v>3</v>
+      <c r="J37" t="s">
+        <v>42</v>
       </c>
       <c r="K37" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L37">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="M37">
         <v>32009</v>
@@ -2162,14 +2168,14 @@
       <c r="I38">
         <v>1</v>
       </c>
-      <c r="J38">
-        <v>3</v>
+      <c r="J38" t="s">
+        <v>42</v>
       </c>
       <c r="K38" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L38">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M38">
         <v>32009</v>
@@ -2206,14 +2212,14 @@
       <c r="I39">
         <v>1</v>
       </c>
-      <c r="J39">
-        <v>3</v>
+      <c r="J39" t="s">
+        <v>43</v>
       </c>
       <c r="K39" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L39">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M39">
         <v>32009</v>
@@ -2250,14 +2256,14 @@
       <c r="I40">
         <v>1</v>
       </c>
-      <c r="J40">
-        <v>3</v>
+      <c r="J40" t="s">
+        <v>43</v>
       </c>
       <c r="K40" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L40">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="M40">
         <v>32009</v>
@@ -2294,11 +2300,11 @@
       <c r="I41">
         <v>1</v>
       </c>
-      <c r="J41">
-        <v>3</v>
+      <c r="J41" t="s">
+        <v>43</v>
       </c>
       <c r="K41" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L41">
         <v>4</v>
@@ -2338,14 +2344,14 @@
       <c r="I42">
         <v>1</v>
       </c>
-      <c r="J42">
-        <v>3</v>
+      <c r="J42" t="s">
+        <v>43</v>
       </c>
       <c r="K42" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M42">
         <v>32009</v>
@@ -2382,14 +2388,14 @@
       <c r="I43">
         <v>1</v>
       </c>
-      <c r="J43">
-        <v>3</v>
+      <c r="J43" t="s">
+        <v>43</v>
       </c>
       <c r="K43" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L43">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M43">
         <v>32009</v>
@@ -2426,14 +2432,14 @@
       <c r="I44">
         <v>1</v>
       </c>
-      <c r="J44">
-        <v>3</v>
+      <c r="J44" t="s">
+        <v>42</v>
       </c>
       <c r="K44" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M44">
         <v>32011</v>
@@ -2470,11 +2476,11 @@
       <c r="I45">
         <v>1</v>
       </c>
-      <c r="J45">
-        <v>3</v>
+      <c r="J45" t="s">
+        <v>42</v>
       </c>
       <c r="K45" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L45">
         <v>4</v>
@@ -2514,14 +2520,14 @@
       <c r="I46">
         <v>1</v>
       </c>
-      <c r="J46">
-        <v>3</v>
+      <c r="J46" t="s">
+        <v>43</v>
       </c>
       <c r="K46" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L46">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M46">
         <v>32011</v>
@@ -2558,14 +2564,14 @@
       <c r="I47">
         <v>1</v>
       </c>
-      <c r="J47">
-        <v>3</v>
+      <c r="J47" t="s">
+        <v>43</v>
       </c>
       <c r="K47" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L47">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="M47">
         <v>32011</v>
@@ -2602,14 +2608,14 @@
       <c r="I48">
         <v>1</v>
       </c>
-      <c r="J48">
-        <v>3</v>
+      <c r="J48" t="s">
+        <v>43</v>
       </c>
       <c r="K48" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L48">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M48">
         <v>32011</v>
@@ -2646,14 +2652,14 @@
       <c r="I49">
         <v>1</v>
       </c>
-      <c r="J49">
-        <v>3</v>
+      <c r="J49" t="s">
+        <v>43</v>
       </c>
       <c r="K49" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L49">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="M49">
         <v>32011</v>
@@ -2690,14 +2696,14 @@
       <c r="I50">
         <v>1</v>
       </c>
-      <c r="J50">
-        <v>3</v>
+      <c r="J50" t="s">
+        <v>43</v>
       </c>
       <c r="K50" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L50">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="M50">
         <v>32011</v>
@@ -2734,14 +2740,14 @@
       <c r="I51">
         <v>1</v>
       </c>
-      <c r="J51">
-        <v>3</v>
+      <c r="J51" t="s">
+        <v>42</v>
       </c>
       <c r="K51" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L51">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="M51">
         <v>32013</v>
@@ -2778,14 +2784,14 @@
       <c r="I52">
         <v>1</v>
       </c>
-      <c r="J52">
-        <v>3</v>
+      <c r="J52" t="s">
+        <v>42</v>
       </c>
       <c r="K52" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L52">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="M52">
         <v>32013</v>
@@ -2822,14 +2828,14 @@
       <c r="I53">
         <v>1</v>
       </c>
-      <c r="J53">
-        <v>3</v>
+      <c r="J53" t="s">
+        <v>43</v>
       </c>
       <c r="K53" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L53">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="M53">
         <v>32013</v>
@@ -2866,14 +2872,14 @@
       <c r="I54">
         <v>1</v>
       </c>
-      <c r="J54">
-        <v>3</v>
+      <c r="J54" t="s">
+        <v>43</v>
       </c>
       <c r="K54" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L54">
-        <v>4</v>
+        <v>362</v>
       </c>
       <c r="M54">
         <v>32013</v>
@@ -2910,14 +2916,14 @@
       <c r="I55">
         <v>1</v>
       </c>
-      <c r="J55">
-        <v>3</v>
+      <c r="J55" t="s">
+        <v>43</v>
       </c>
       <c r="K55" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L55">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="M55">
         <v>32013</v>
@@ -2954,14 +2960,14 @@
       <c r="I56">
         <v>1</v>
       </c>
-      <c r="J56">
-        <v>3</v>
+      <c r="J56" t="s">
+        <v>43</v>
       </c>
       <c r="K56" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L56">
-        <v>4</v>
+        <v>183</v>
       </c>
       <c r="M56">
         <v>32013</v>
@@ -2998,14 +3004,14 @@
       <c r="I57">
         <v>1</v>
       </c>
-      <c r="J57">
-        <v>3</v>
+      <c r="J57" t="s">
+        <v>43</v>
       </c>
       <c r="K57" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L57">
-        <v>4</v>
+        <v>190</v>
       </c>
       <c r="M57">
         <v>32013</v>
@@ -3042,14 +3048,14 @@
       <c r="I58">
         <v>1</v>
       </c>
-      <c r="J58">
-        <v>3</v>
+      <c r="J58" t="s">
+        <v>42</v>
       </c>
       <c r="K58" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L58">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="M58">
         <v>32015</v>
@@ -3086,14 +3092,14 @@
       <c r="I59">
         <v>1</v>
       </c>
-      <c r="J59">
-        <v>3</v>
+      <c r="J59" t="s">
+        <v>42</v>
       </c>
       <c r="K59" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L59">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="M59">
         <v>32015</v>
@@ -3130,14 +3136,14 @@
       <c r="I60">
         <v>1</v>
       </c>
-      <c r="J60">
-        <v>3</v>
+      <c r="J60" t="s">
+        <v>43</v>
       </c>
       <c r="K60" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L60">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="M60">
         <v>32015</v>
@@ -3174,14 +3180,14 @@
       <c r="I61">
         <v>1</v>
       </c>
-      <c r="J61">
-        <v>3</v>
+      <c r="J61" t="s">
+        <v>43</v>
       </c>
       <c r="K61" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L61">
-        <v>4</v>
+        <v>166</v>
       </c>
       <c r="M61">
         <v>32015</v>
@@ -3218,14 +3224,14 @@
       <c r="I62">
         <v>1</v>
       </c>
-      <c r="J62">
-        <v>3</v>
+      <c r="J62" t="s">
+        <v>43</v>
       </c>
       <c r="K62" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L62">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M62">
         <v>32015</v>
@@ -3262,14 +3268,14 @@
       <c r="I63">
         <v>1</v>
       </c>
-      <c r="J63">
-        <v>3</v>
+      <c r="J63" t="s">
+        <v>43</v>
       </c>
       <c r="K63" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L63">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="M63">
         <v>32015</v>
@@ -3306,14 +3312,14 @@
       <c r="I64">
         <v>1</v>
       </c>
-      <c r="J64">
-        <v>3</v>
+      <c r="J64" t="s">
+        <v>43</v>
       </c>
       <c r="K64" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L64">
-        <v>4</v>
+        <v>149</v>
       </c>
       <c r="M64">
         <v>32015</v>
@@ -3350,14 +3356,14 @@
       <c r="I65">
         <v>1</v>
       </c>
-      <c r="J65">
-        <v>3</v>
+      <c r="J65" t="s">
+        <v>42</v>
       </c>
       <c r="K65" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L65">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="M65">
         <v>32017</v>
@@ -3394,14 +3400,14 @@
       <c r="I66">
         <v>1</v>
       </c>
-      <c r="J66">
-        <v>3</v>
+      <c r="J66" t="s">
+        <v>42</v>
       </c>
       <c r="K66" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L66">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="M66">
         <v>32017</v>
@@ -3438,14 +3444,14 @@
       <c r="I67">
         <v>1</v>
       </c>
-      <c r="J67">
-        <v>3</v>
+      <c r="J67" t="s">
+        <v>43</v>
       </c>
       <c r="K67" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L67">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="M67">
         <v>32017</v>
@@ -3482,14 +3488,14 @@
       <c r="I68">
         <v>1</v>
       </c>
-      <c r="J68">
-        <v>3</v>
+      <c r="J68" t="s">
+        <v>43</v>
       </c>
       <c r="K68" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L68">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="M68">
         <v>32017</v>
@@ -3526,11 +3532,11 @@
       <c r="I69">
         <v>1</v>
       </c>
-      <c r="J69">
-        <v>3</v>
+      <c r="J69" t="s">
+        <v>43</v>
       </c>
       <c r="K69" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L69">
         <v>4</v>
@@ -3570,14 +3576,14 @@
       <c r="I70">
         <v>1</v>
       </c>
-      <c r="J70">
-        <v>3</v>
+      <c r="J70" t="s">
+        <v>43</v>
       </c>
       <c r="K70" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L70">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="M70">
         <v>32017</v>
@@ -3614,14 +3620,14 @@
       <c r="I71">
         <v>1</v>
       </c>
-      <c r="J71">
-        <v>3</v>
+      <c r="J71" t="s">
+        <v>43</v>
       </c>
       <c r="K71" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L71">
-        <v>4</v>
+        <v>128</v>
       </c>
       <c r="M71">
         <v>32017</v>
@@ -3658,14 +3664,14 @@
       <c r="I72">
         <v>1</v>
       </c>
-      <c r="J72">
-        <v>3</v>
+      <c r="J72" t="s">
+        <v>42</v>
       </c>
       <c r="K72" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L72">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="M72">
         <v>32019</v>
@@ -3702,14 +3708,14 @@
       <c r="I73">
         <v>1</v>
       </c>
-      <c r="J73">
-        <v>3</v>
+      <c r="J73" t="s">
+        <v>42</v>
       </c>
       <c r="K73" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="M73">
         <v>32019</v>
@@ -3746,14 +3752,14 @@
       <c r="I74">
         <v>1</v>
       </c>
-      <c r="J74">
-        <v>3</v>
+      <c r="J74" t="s">
+        <v>43</v>
       </c>
       <c r="K74" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L74">
-        <v>4</v>
+        <v>209</v>
       </c>
       <c r="M74">
         <v>32019</v>
@@ -3790,14 +3796,14 @@
       <c r="I75">
         <v>1</v>
       </c>
-      <c r="J75">
-        <v>3</v>
+      <c r="J75" t="s">
+        <v>43</v>
       </c>
       <c r="K75" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L75">
-        <v>4</v>
+        <v>1400</v>
       </c>
       <c r="M75">
         <v>32019</v>
@@ -3834,14 +3840,14 @@
       <c r="I76">
         <v>1</v>
       </c>
-      <c r="J76">
-        <v>3</v>
+      <c r="J76" t="s">
+        <v>43</v>
       </c>
       <c r="K76" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L76">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="M76">
         <v>32019</v>
@@ -3878,14 +3884,14 @@
       <c r="I77">
         <v>1</v>
       </c>
-      <c r="J77">
-        <v>3</v>
+      <c r="J77" t="s">
+        <v>43</v>
       </c>
       <c r="K77" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L77">
-        <v>4</v>
+        <v>507</v>
       </c>
       <c r="M77">
         <v>32019</v>
@@ -3922,14 +3928,14 @@
       <c r="I78">
         <v>1</v>
       </c>
-      <c r="J78">
-        <v>3</v>
+      <c r="J78" t="s">
+        <v>43</v>
       </c>
       <c r="K78" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L78">
-        <v>4</v>
+        <v>712</v>
       </c>
       <c r="M78">
         <v>32019</v>
@@ -3966,14 +3972,14 @@
       <c r="I79">
         <v>1</v>
       </c>
-      <c r="J79">
-        <v>3</v>
+      <c r="J79" t="s">
+        <v>42</v>
       </c>
       <c r="K79" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L79">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="M79">
         <v>32021</v>
@@ -4010,14 +4016,14 @@
       <c r="I80">
         <v>1</v>
       </c>
-      <c r="J80">
-        <v>3</v>
+      <c r="J80" t="s">
+        <v>42</v>
       </c>
       <c r="K80" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L80">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="M80">
         <v>32021</v>
@@ -4054,14 +4060,14 @@
       <c r="I81">
         <v>1</v>
       </c>
-      <c r="J81">
-        <v>3</v>
+      <c r="J81" t="s">
+        <v>43</v>
       </c>
       <c r="K81" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L81">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="M81">
         <v>32021</v>
@@ -4098,14 +4104,14 @@
       <c r="I82">
         <v>1</v>
       </c>
-      <c r="J82">
-        <v>3</v>
+      <c r="J82" t="s">
+        <v>43</v>
       </c>
       <c r="K82" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L82">
-        <v>4</v>
+        <v>98</v>
       </c>
       <c r="M82">
         <v>32021</v>
@@ -4142,14 +4148,14 @@
       <c r="I83">
         <v>1</v>
       </c>
-      <c r="J83">
-        <v>3</v>
+      <c r="J83" t="s">
+        <v>43</v>
       </c>
       <c r="K83" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L83">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M83">
         <v>32021</v>
@@ -4186,14 +4192,14 @@
       <c r="I84">
         <v>1</v>
       </c>
-      <c r="J84">
-        <v>3</v>
+      <c r="J84" t="s">
+        <v>43</v>
       </c>
       <c r="K84" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L84">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="M84">
         <v>32021</v>
@@ -4230,14 +4236,14 @@
       <c r="I85">
         <v>1</v>
       </c>
-      <c r="J85">
-        <v>3</v>
+      <c r="J85" t="s">
+        <v>43</v>
       </c>
       <c r="K85" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L85">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M85">
         <v>32021</v>
@@ -4274,14 +4280,14 @@
       <c r="I86">
         <v>1</v>
       </c>
-      <c r="J86">
-        <v>3</v>
+      <c r="J86" t="s">
+        <v>42</v>
       </c>
       <c r="K86" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L86">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="M86">
         <v>32023</v>
@@ -4318,14 +4324,14 @@
       <c r="I87">
         <v>1</v>
       </c>
-      <c r="J87">
-        <v>3</v>
+      <c r="J87" t="s">
+        <v>42</v>
       </c>
       <c r="K87" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L87">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="M87">
         <v>32023</v>
@@ -4362,14 +4368,14 @@
       <c r="I88">
         <v>1</v>
       </c>
-      <c r="J88">
-        <v>3</v>
+      <c r="J88" t="s">
+        <v>43</v>
       </c>
       <c r="K88" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L88">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="M88">
         <v>32023</v>
@@ -4406,14 +4412,14 @@
       <c r="I89">
         <v>1</v>
       </c>
-      <c r="J89">
-        <v>3</v>
+      <c r="J89" t="s">
+        <v>43</v>
       </c>
       <c r="K89" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L89">
-        <v>4</v>
+        <v>981</v>
       </c>
       <c r="M89">
         <v>32023</v>
@@ -4450,14 +4456,14 @@
       <c r="I90">
         <v>1</v>
       </c>
-      <c r="J90">
-        <v>3</v>
+      <c r="J90" t="s">
+        <v>43</v>
       </c>
       <c r="K90" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L90">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="M90">
         <v>32023</v>
@@ -4494,14 +4500,14 @@
       <c r="I91">
         <v>1</v>
       </c>
-      <c r="J91">
-        <v>3</v>
+      <c r="J91" t="s">
+        <v>43</v>
       </c>
       <c r="K91" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L91">
-        <v>4</v>
+        <v>221</v>
       </c>
       <c r="M91">
         <v>32023</v>
@@ -4538,14 +4544,14 @@
       <c r="I92">
         <v>1</v>
       </c>
-      <c r="J92">
-        <v>3</v>
+      <c r="J92" t="s">
+        <v>43</v>
       </c>
       <c r="K92" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L92">
-        <v>4</v>
+        <v>409</v>
       </c>
       <c r="M92">
         <v>32023</v>
@@ -4582,14 +4588,14 @@
       <c r="I93">
         <v>1</v>
       </c>
-      <c r="J93">
-        <v>3</v>
+      <c r="J93" t="s">
+        <v>42</v>
       </c>
       <c r="K93" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L93">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="M93">
         <v>32027</v>
@@ -4626,14 +4632,14 @@
       <c r="I94">
         <v>1</v>
       </c>
-      <c r="J94">
-        <v>3</v>
+      <c r="J94" t="s">
+        <v>42</v>
       </c>
       <c r="K94" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L94">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="M94">
         <v>32027</v>
@@ -4670,14 +4676,14 @@
       <c r="I95">
         <v>1</v>
       </c>
-      <c r="J95">
-        <v>3</v>
+      <c r="J95" t="s">
+        <v>43</v>
       </c>
       <c r="K95" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L95">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="M95">
         <v>32027</v>
@@ -4714,14 +4720,14 @@
       <c r="I96">
         <v>1</v>
       </c>
-      <c r="J96">
-        <v>3</v>
+      <c r="J96" t="s">
+        <v>43</v>
       </c>
       <c r="K96" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L96">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="M96">
         <v>32027</v>
@@ -4758,14 +4764,14 @@
       <c r="I97">
         <v>1</v>
       </c>
-      <c r="J97">
-        <v>3</v>
+      <c r="J97" t="s">
+        <v>43</v>
       </c>
       <c r="K97" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L97">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="M97">
         <v>32027</v>
@@ -4802,14 +4808,14 @@
       <c r="I98">
         <v>1</v>
       </c>
-      <c r="J98">
-        <v>3</v>
+      <c r="J98" t="s">
+        <v>43</v>
       </c>
       <c r="K98" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L98">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="M98">
         <v>32027</v>
@@ -4846,14 +4852,14 @@
       <c r="I99">
         <v>1</v>
       </c>
-      <c r="J99">
-        <v>3</v>
+      <c r="J99" t="s">
+        <v>43</v>
       </c>
       <c r="K99" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L99">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="M99">
         <v>32027</v>
@@ -4890,14 +4896,14 @@
       <c r="I100">
         <v>1</v>
       </c>
-      <c r="J100">
-        <v>3</v>
+      <c r="J100" t="s">
+        <v>42</v>
       </c>
       <c r="K100" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L100">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="M100">
         <v>32029</v>
@@ -4934,14 +4940,14 @@
       <c r="I101">
         <v>1</v>
       </c>
-      <c r="J101">
-        <v>3</v>
+      <c r="J101" t="s">
+        <v>42</v>
       </c>
       <c r="K101" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L101">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="M101">
         <v>32029</v>
@@ -4978,14 +4984,14 @@
       <c r="I102">
         <v>1</v>
       </c>
-      <c r="J102">
-        <v>3</v>
+      <c r="J102" t="s">
+        <v>43</v>
       </c>
       <c r="K102" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="M102">
         <v>32029</v>
@@ -5022,14 +5028,14 @@
       <c r="I103">
         <v>1</v>
       </c>
-      <c r="J103">
-        <v>3</v>
+      <c r="J103" t="s">
+        <v>43</v>
       </c>
       <c r="K103" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L103">
-        <v>4</v>
+        <v>162</v>
       </c>
       <c r="M103">
         <v>32029</v>
@@ -5066,14 +5072,14 @@
       <c r="I104">
         <v>1</v>
       </c>
-      <c r="J104">
-        <v>3</v>
+      <c r="J104" t="s">
+        <v>43</v>
       </c>
       <c r="K104" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L104">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M104">
         <v>32029</v>
@@ -5110,14 +5116,14 @@
       <c r="I105">
         <v>1</v>
       </c>
-      <c r="J105">
-        <v>3</v>
+      <c r="J105" t="s">
+        <v>43</v>
       </c>
       <c r="K105" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L105">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="M105">
         <v>32029</v>
@@ -5154,14 +5160,14 @@
       <c r="I106">
         <v>1</v>
       </c>
-      <c r="J106">
-        <v>3</v>
+      <c r="J106" t="s">
+        <v>43</v>
       </c>
       <c r="K106" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L106">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="M106">
         <v>32029</v>
@@ -5198,14 +5204,14 @@
       <c r="I107">
         <v>1</v>
       </c>
-      <c r="J107">
-        <v>3</v>
+      <c r="J107" t="s">
+        <v>42</v>
       </c>
       <c r="K107" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L107">
-        <v>4</v>
+        <v>1016</v>
       </c>
       <c r="M107">
         <v>32031</v>
@@ -5242,14 +5248,14 @@
       <c r="I108">
         <v>1</v>
       </c>
-      <c r="J108">
-        <v>3</v>
+      <c r="J108" t="s">
+        <v>42</v>
       </c>
       <c r="K108" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L108">
-        <v>4</v>
+        <v>864</v>
       </c>
       <c r="M108">
         <v>32031</v>
@@ -5286,14 +5292,14 @@
       <c r="I109">
         <v>1</v>
       </c>
-      <c r="J109">
-        <v>3</v>
+      <c r="J109" t="s">
+        <v>43</v>
       </c>
       <c r="K109" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L109">
-        <v>4</v>
+        <v>795</v>
       </c>
       <c r="M109">
         <v>32031</v>
@@ -5330,14 +5336,14 @@
       <c r="I110">
         <v>1</v>
       </c>
-      <c r="J110">
-        <v>3</v>
+      <c r="J110" t="s">
+        <v>43</v>
       </c>
       <c r="K110" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L110">
-        <v>4</v>
+        <v>6851</v>
       </c>
       <c r="M110">
         <v>32031</v>
@@ -5374,14 +5380,14 @@
       <c r="I111">
         <v>1</v>
       </c>
-      <c r="J111">
-        <v>3</v>
+      <c r="J111" t="s">
+        <v>43</v>
       </c>
       <c r="K111" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L111">
-        <v>4</v>
+        <v>732</v>
       </c>
       <c r="M111">
         <v>32031</v>
@@ -5418,14 +5424,14 @@
       <c r="I112">
         <v>1</v>
       </c>
-      <c r="J112">
-        <v>3</v>
+      <c r="J112" t="s">
+        <v>43</v>
       </c>
       <c r="K112" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L112">
-        <v>4</v>
+        <v>3816</v>
       </c>
       <c r="M112">
         <v>32031</v>
@@ -5462,14 +5468,14 @@
       <c r="I113">
         <v>1</v>
       </c>
-      <c r="J113">
-        <v>3</v>
+      <c r="J113" t="s">
+        <v>43</v>
       </c>
       <c r="K113" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L113">
-        <v>4</v>
+        <v>3241</v>
       </c>
       <c r="M113">
         <v>32031</v>
@@ -5506,14 +5512,14 @@
       <c r="I114">
         <v>1</v>
       </c>
-      <c r="J114">
-        <v>3</v>
+      <c r="J114" t="s">
+        <v>42</v>
       </c>
       <c r="K114" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L114">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="M114">
         <v>32033</v>
@@ -5550,14 +5556,14 @@
       <c r="I115">
         <v>1</v>
       </c>
-      <c r="J115">
-        <v>3</v>
+      <c r="J115" t="s">
+        <v>42</v>
       </c>
       <c r="K115" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L115">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="M115">
         <v>32033</v>
@@ -5594,14 +5600,14 @@
       <c r="I116">
         <v>1</v>
       </c>
-      <c r="J116">
-        <v>3</v>
+      <c r="J116" t="s">
+        <v>43</v>
       </c>
       <c r="K116" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L116">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="M116">
         <v>32033</v>
@@ -5638,14 +5644,14 @@
       <c r="I117">
         <v>1</v>
       </c>
-      <c r="J117">
-        <v>3</v>
+      <c r="J117" t="s">
+        <v>43</v>
       </c>
       <c r="K117" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L117">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="M117">
         <v>32033</v>
@@ -5682,14 +5688,14 @@
       <c r="I118">
         <v>1</v>
       </c>
-      <c r="J118">
-        <v>3</v>
+      <c r="J118" t="s">
+        <v>43</v>
       </c>
       <c r="K118" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L118">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="M118">
         <v>32033</v>
@@ -5726,14 +5732,14 @@
       <c r="I119">
         <v>1</v>
       </c>
-      <c r="J119">
-        <v>3</v>
+      <c r="J119" t="s">
+        <v>43</v>
       </c>
       <c r="K119" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L119">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="M119">
         <v>32033</v>
@@ -5770,14 +5776,14 @@
       <c r="I120">
         <v>1</v>
       </c>
-      <c r="J120">
-        <v>3</v>
+      <c r="J120" t="s">
+        <v>43</v>
       </c>
       <c r="K120" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L120">
-        <v>4</v>
+        <v>118</v>
       </c>
       <c r="M120">
         <v>32033</v>
